--- a/medicine/Autisme/Mary_et_Max/Mary_et_Max.xlsx
+++ b/medicine/Autisme/Mary_et_Max/Mary_et_Max.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary et Max (Mary and Max) est un film d'animation australien en pâte à modeler réalisé par Adam Elliot et sorti en 2009.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mary est une petite fille australienne solitaire et disgracieuse âgée de 8 ans. Tête de turc des garçons de son école, elle décide d'écrire à un correspondant choisi au hasard dans un annuaire de New York, espérant se faire un ami. Max Horowitz, 44 ans, Juif solitaire, obèse et porteur du syndrome d'Asperger, répond à sa lettre. Ils deviennent ainsi de grands amis pour les années qui vont suivre...
 Gourmands, l'un comme l'autre, Mary et Max s'échangent des chocolats par correspondance. Max a d'ailleurs inventé la recette du « hot-dog au chocolat », et bien d'autres recettes à base de chocolat. Quant à Mary, c'est une inconditionnelle du lait concentré sucré.
@@ -550,7 +564,9 @@
           <t>Thèmes du film</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le film évoque les thèmes de l'autisme, de la différence et de la solitude. À travers la correspondance de Mary et de Max, ce sont deux êtres solitaires qui se rencontrent et cherchent à se comprendre. Mary pose des questions fondamentales à Max, sur l'amour, la vie ou encore la méchanceté de ses camarades. Ces questions provoquent une vive angoisse chez Max, qui a l'habitude de rester enfermé dans une vie régulière et parfaitement normée.
 Le film est présenté comme étant inspiré d'une histoire vraie et dans une interview d'avril 2009, l'auteur-réalisateur Adam Elliot précise que le personnage de Max lui a été inspiré par une personne de New-York avec laquelle il a entretenu une correspondance pendant plus de 20 ans.
@@ -582,7 +598,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Titre original : Mary and Max
 Titre français : Mary et Max
@@ -626,9 +644,11 @@
           <t>Distribution vocale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Les informations concernant la distribution de la version originale sont tirées de l'Internet Movie Database[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les informations concernant la distribution de la version originale sont tirées de l'Internet Movie Database.
 Toni Collette (VF : Julia Vaidis-Bogard) : Mary Daisy Dinkle
 Philip Seymour Hoffman (VF : Jean-Claude Grumberg) : Max Jerry Horowitz
 Barry Humphries (VF : Denis Podalydès) : le narrateur (voix off)
@@ -663,7 +683,9 @@
           <t>Musique du film</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La musique de Mary et Max est composée essentiellement de morceaux que le réalisateur, Adam Elliot, souhaitait inclure dans ses films depuis longtemps. Il écoutait ces musiques lors de l'écriture du scénario et de la réalisation. Le compositeur Dale Cornelius complète cette sélection en écrivant quelques pistes originales.
 Perpetuum Mobile – Penguin Cafe Orchestra
@@ -709,10 +731,12 @@
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Cristal du long métrage au Festival international du film d'animation d'Annecy en 2009[2] (ex æquo).
-AniMovi : Prix du meilleur long métrage d'animation, au Festival International du Film d'Animation de Stuttgart (Internationales Trickfilm Festival Stuttgart (ITFS)) ((Allemagne), en 2009[3].</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Cristal du long métrage au Festival international du film d'animation d'Annecy en 2009 (ex æquo).
+AniMovi : Prix du meilleur long métrage d'animation, au Festival International du Film d'Animation de Stuttgart (Internationales Trickfilm Festival Stuttgart (ITFS)) ((Allemagne), en 2009.</t>
         </is>
       </c>
     </row>
